--- a/biology/Zoologie/Dendrocygne_veuf/Dendrocygne_veuf.xlsx
+++ b/biology/Zoologie/Dendrocygne_veuf/Dendrocygne_veuf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocygna viduata
-Le Dendrocygne veuf (Dendrocygna viduata) ou dendrocygne à face blanche, est une espèce d'oiseaux de la famille des anatidés[1]. C'est l'espèce de dendrocygne la plus connue et la plus souvent élevée en captivité.
+Le Dendrocygne veuf (Dendrocygna viduata) ou dendrocygne à face blanche, est une espèce d'oiseaux de la famille des anatidés. C'est l'espèce de dendrocygne la plus connue et la plus souvent élevée en captivité.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure entre 43 et 48 cm de long, 90 cm d'envergure et pèse 700g en moyenne. Le bec est noir, les jambes et pattes couleur plomb et l’iris est marron[2]. Certaines zones sont d’un blanc pur (lorsque l’animal est propre) : les joues, la gorge et une grande tache sur la face inférieure du cou. L’arrière de la tête et le cou sont noirs. La partie inférieure du cou, le haut du dos et de la poitrine sont d’un roux foncé. Une partie des plumes du ventre et des flancs inférieurs forment comme un maillage de rayures noires sur du blanc, ou du moins du clair. Chez le jeune, les couleurs sont plus ternes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure entre 43 et 48 cm de long, 90 cm d'envergure et pèse 700g en moyenne. Le bec est noir, les jambes et pattes couleur plomb et l’iris est marron. Certaines zones sont d’un blanc pur (lorsque l’animal est propre) : les joues, la gorge et une grande tache sur la face inférieure du cou. L’arrière de la tête et le cou sont noirs. La partie inférieure du cou, le haut du dos et de la poitrine sont d’un roux foncé. Une partie des plumes du ventre et des flancs inférieurs forment comme un maillage de rayures noires sur du blanc, ou du moins du clair. Chez le jeune, les couleurs sont plus ternes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Jeunes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le juvénile est plus terne avec la face grisâtre nuancée de jaunâtre et le cou plus brun.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Afrique subsaharienne et en Amérique du Sud (de la Colombie au nord de l'Argentine).
 </t>
